--- a/ipc.xlsx
+++ b/ipc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Google Drive\Uninorte\Uninorte-docencia\bookdown\intro_eco_col\int_eco_co_notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F591A8A0-CE5E-471A-86E8-8959CD6C2CDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8EEF45-54BC-4F0B-93B3-7407F27E6923}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05F39EAA-D3D8-497A-B673-B2268BD9E8C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>fecha</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>infanual</t>
+  </si>
+  <si>
+    <t>ibr</t>
   </si>
 </sst>
 </file>
@@ -395,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ED28DB-EF87-4AFF-BFF1-9CC0C393CCCE}">
-  <dimension ref="A1:C801"/>
+  <dimension ref="A1:D801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D795" sqref="D795"/>
+      <selection activeCell="E699" sqref="E699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,8 +416,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>19906</v>
       </c>
@@ -422,7 +428,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>19937</v>
       </c>
@@ -430,7 +436,7 @@
         <v>2.9771999999999996E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>19968</v>
       </c>
@@ -438,7 +444,7 @@
         <v>2.9364123599999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>19998</v>
       </c>
@@ -446,7 +452,7 @@
         <v>2.9463961620239999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20029</v>
       </c>
@@ -454,7 +460,7 @@
         <v>2.9543514316614644E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20059</v>
       </c>
@@ -462,7 +468,7 @@
         <v>2.9703049293924366E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>20090</v>
       </c>
@@ -470,7 +476,7 @@
         <v>2.9652554110124695E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20121</v>
       </c>
@@ -478,7 +484,7 @@
         <v>2.9631797322247608E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>20149</v>
       </c>
@@ -486,7 +492,7 @@
         <v>2.9750324511536599E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20180</v>
       </c>
@@ -494,7 +500,7 @@
         <v>2.9958576783117353E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20210</v>
       </c>
@@ -502,7 +508,7 @@
         <v>2.9829754902949947E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>20241</v>
       </c>
@@ -510,7 +516,7 @@
         <v>2.9808874074517881E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>20271</v>
       </c>
@@ -522,7 +528,7 @@
         <v>-8.6562111951170584E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>20302</v>
       </c>
@@ -534,7 +540,7 @@
         <v>-6.5364174034798772E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>20333</v>
       </c>
@@ -8610,7 +8616,7 @@
         <v>3.7276445239983191E-2</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>40817</v>
       </c>
@@ -8622,7 +8628,7 @@
         <v>4.0183435577959337E-2</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>40848</v>
       </c>
@@ -8634,7 +8640,7 @@
         <v>3.9664330160463557E-2</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>40878</v>
       </c>
@@ -8646,7 +8652,7 @@
         <v>3.7288544805899271E-2</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>40909</v>
       </c>
@@ -8658,7 +8664,7 @@
         <v>3.5438262989775371E-2</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>40940</v>
       </c>
@@ -8670,7 +8676,7 @@
         <v>3.554118925846228E-2</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>40969</v>
       </c>
@@ -8682,7 +8688,7 @@
         <v>3.3992060123239742E-2</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>41000</v>
       </c>
@@ -8694,7 +8700,7 @@
         <v>3.4198610674602836E-2</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>41030</v>
       </c>
@@ -8706,7 +8712,7 @@
         <v>3.4404872862611402E-2</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>41061</v>
       </c>
@@ -8718,7 +8724,7 @@
         <v>3.1930220056719749E-2</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>41091</v>
       </c>
@@ -8730,7 +8736,7 @@
         <v>3.0281439996712844E-2</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>41122</v>
       </c>
@@ -8741,8 +8747,11 @@
         <f t="shared" si="10"/>
         <v>3.1002853428740096E-2</v>
       </c>
-    </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D699">
+        <v>4.9868095238095239E-2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>41153</v>
       </c>
@@ -8753,8 +8762,11 @@
         <f t="shared" si="10"/>
         <v>3.0797290104359609E-2</v>
       </c>
-    </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D700">
+        <v>4.6889500000000001E-2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>41183</v>
       </c>
@@ -8765,8 +8777,11 @@
         <f t="shared" si="10"/>
         <v>3.0488637357547477E-2</v>
       </c>
-    </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D701">
+        <v>4.7448181818181813E-2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>41214</v>
       </c>
@@ -8777,8 +8792,11 @@
         <f t="shared" si="10"/>
         <v>2.7607303040989351E-2</v>
       </c>
-    </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D702">
+        <v>4.6769499999999999E-2</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>41244</v>
       </c>
@@ -8789,8 +8807,11 @@
         <f t="shared" si="10"/>
         <v>2.4230382009287288E-2</v>
       </c>
-    </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D703">
+        <v>4.4384736842105268E-2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>41275</v>
       </c>
@@ -8801,8 +8822,11 @@
         <f t="shared" si="10"/>
         <v>1.9858108959907472E-2</v>
       </c>
-    </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D704">
+        <v>4.0678571428571432E-2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>41306</v>
       </c>
@@ -8813,8 +8837,11 @@
         <f t="shared" si="10"/>
         <v>1.8134861981245587E-2</v>
       </c>
-    </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D705">
+        <v>3.8317499999999997E-2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>41334</v>
       </c>
@@ -8825,8 +8852,11 @@
         <f t="shared" si="10"/>
         <v>1.9050085089298952E-2</v>
       </c>
-    </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D706">
+        <v>3.5555555555555549E-2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>41365</v>
       </c>
@@ -8837,8 +8867,11 @@
         <f t="shared" si="10"/>
         <v>2.016947303976635E-2</v>
       </c>
-    </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D707">
+        <v>3.1535909090909094E-2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>41395</v>
       </c>
@@ -8849,8 +8882,11 @@
         <f t="shared" si="10"/>
         <v>1.9966049416029641E-2</v>
       </c>
-    </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D708">
+        <v>3.2013333333333331E-2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>41426</v>
       </c>
@@ -8861,8 +8897,11 @@
         <f t="shared" si="10"/>
         <v>2.149477550927914E-2</v>
       </c>
-    </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D709">
+        <v>3.2252777777777776E-2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>41456</v>
       </c>
@@ -8873,8 +8912,11 @@
         <f t="shared" si="10"/>
         <v>2.2107794978478479E-2</v>
       </c>
-    </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D710">
+        <v>3.2142272727272728E-2</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>41487</v>
       </c>
@@ -8885,8 +8927,11 @@
         <f t="shared" si="10"/>
         <v>2.2516474624611593E-2</v>
       </c>
-    </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D711">
+        <v>3.2627999999999997E-2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>41518</v>
       </c>
@@ -8897,8 +8942,11 @@
         <f t="shared" si="10"/>
         <v>2.2516474624611593E-2</v>
       </c>
-    </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D712">
+        <v>3.2064285714285712E-2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>41548</v>
       </c>
@@ -8909,8 +8957,11 @@
         <f t="shared" si="10"/>
         <v>1.8228765765362809E-2</v>
       </c>
-    </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D713">
+        <v>3.2530909090909089E-2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>41579</v>
       </c>
@@ -8921,8 +8972,11 @@
         <f t="shared" si="10"/>
         <v>1.7413040737711771E-2</v>
       </c>
-    </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D714">
+        <v>3.2496842105263164E-2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>41609</v>
       </c>
@@ -8933,8 +8987,11 @@
         <f t="shared" si="10"/>
         <v>1.9141087664731549E-2</v>
       </c>
-    </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D715">
+        <v>3.2312500000000001E-2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>41640</v>
       </c>
@@ -8945,8 +9002,11 @@
         <f t="shared" si="10"/>
         <v>2.1071664002281887E-2</v>
       </c>
-    </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D716">
+        <v>3.2483809523809519E-2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>41671</v>
       </c>
@@ -8957,8 +9017,11 @@
         <f t="shared" si="10"/>
         <v>2.300320139933909E-2</v>
       </c>
-    </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D717">
+        <v>3.2688000000000002E-2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>41699</v>
       </c>
@@ -8969,8 +9032,11 @@
         <f t="shared" si="10"/>
         <v>2.4840748313338379E-2</v>
       </c>
-    </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D718">
+        <v>3.2195999999999995E-2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>41730</v>
       </c>
@@ -8981,8 +9047,11 @@
         <f t="shared" ref="C719:C782" si="11">B719/B707-1</f>
         <v>2.6987546888358915E-2</v>
       </c>
-    </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D719">
+        <v>3.26515E-2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>41760</v>
       </c>
@@ -8993,8 +9062,11 @@
         <f t="shared" si="11"/>
         <v>2.9035786910074801E-2</v>
       </c>
-    </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D720">
+        <v>3.6377142857142858E-2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>41791</v>
       </c>
@@ -9005,8 +9077,11 @@
         <f t="shared" si="11"/>
         <v>2.7598442700083492E-2</v>
       </c>
-    </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D721">
+        <v>3.9267777777777783E-2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>41821</v>
       </c>
@@ -9017,8 +9092,11 @@
         <f t="shared" si="11"/>
         <v>2.8728349024524036E-2</v>
       </c>
-    </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D722">
+        <v>4.0868260869565215E-2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>41852</v>
       </c>
@@ -9029,8 +9107,11 @@
         <f t="shared" si="11"/>
         <v>2.9961836253570295E-2</v>
       </c>
-    </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D723">
+        <v>4.2753684210526312E-2</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>41883</v>
       </c>
@@ -9041,8 +9122,11 @@
         <f t="shared" si="11"/>
         <v>2.8421360877779911E-2</v>
       </c>
-    </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D724">
+        <v>4.4670000000000015E-2</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>41913</v>
       </c>
@@ -9053,8 +9137,11 @@
         <f t="shared" si="11"/>
         <v>3.2751990229781924E-2</v>
       </c>
-    </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D725">
+        <v>4.4844999999999996E-2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>41944</v>
       </c>
@@ -9065,8 +9152,11 @@
         <f t="shared" si="11"/>
         <v>3.6374591919303256E-2</v>
       </c>
-    </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D726">
+        <v>4.4998333333333335E-2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>41974</v>
       </c>
@@ -9077,8 +9167,11 @@
         <f t="shared" si="11"/>
         <v>3.6477960619873739E-2</v>
       </c>
-    </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D727">
+        <v>4.4978999999999998E-2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>42005</v>
       </c>
@@ -9089,8 +9182,11 @@
         <f t="shared" si="11"/>
         <v>3.8025096594527907E-2</v>
       </c>
-    </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D728">
+        <v>4.5058000000000001E-2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>42036</v>
       </c>
@@ -9101,8 +9197,11 @@
         <f t="shared" si="11"/>
         <v>4.3389034289342376E-2</v>
       </c>
-    </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D729">
+        <v>4.5023000000000001E-2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>42064</v>
       </c>
@@ -9113,8 +9212,11 @@
         <f t="shared" si="11"/>
         <v>4.5467705540043202E-2</v>
       </c>
-    </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D730">
+        <v>4.498428571428572E-2</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>42095</v>
       </c>
@@ -9125,8 +9227,11 @@
         <f t="shared" si="11"/>
         <v>4.6300249999959853E-2</v>
       </c>
-    </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D731">
+        <v>4.5145499999999998E-2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>42125</v>
       </c>
@@ -9137,8 +9242,11 @@
         <f t="shared" si="11"/>
         <v>4.4009385599084183E-2</v>
       </c>
-    </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D732">
+        <v>4.5115789473684213E-2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <v>42156</v>
       </c>
@@ -9149,8 +9257,11 @@
         <f t="shared" si="11"/>
         <v>4.4113692661287951E-2</v>
       </c>
-    </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D733">
+        <v>4.5102631578947373E-2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <v>42186</v>
       </c>
@@ -9161,8 +9272,11 @@
         <f t="shared" si="11"/>
         <v>4.4530712608431777E-2</v>
       </c>
-    </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D734">
+        <v>4.5195909090909092E-2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <v>42217</v>
       </c>
@@ -9173,8 +9287,11 @@
         <f t="shared" si="11"/>
         <v>4.74495609071377E-2</v>
       </c>
-    </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D735">
+        <v>4.5866842105263164E-2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>42248</v>
       </c>
@@ -9185,8 +9302,11 @@
         <f t="shared" si="11"/>
         <v>5.3516274960724086E-2</v>
       </c>
-    </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D736">
+        <v>4.632E-2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <v>42278</v>
       </c>
@@ -9197,8 +9317,11 @@
         <f t="shared" si="11"/>
         <v>5.8985808337117529E-2</v>
       </c>
-    </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D737">
+        <v>4.9519523809523812E-2</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <v>42309</v>
       </c>
@@ -9209,8 +9332,11 @@
         <f t="shared" si="11"/>
         <v>6.3956579633616339E-2</v>
       </c>
-    </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D738">
+        <v>5.4362631578947364E-2</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>42339</v>
       </c>
@@ -9221,8 +9347,11 @@
         <f t="shared" si="11"/>
         <v>6.7670400346409698E-2</v>
       </c>
-    </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D739">
+        <v>5.7374000000000001E-2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>42370</v>
       </c>
@@ -9233,8 +9362,11 @@
         <f t="shared" si="11"/>
         <v>7.4566125308901388E-2</v>
       </c>
-    </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D740">
+        <v>5.9357894736842109E-2</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>42401</v>
       </c>
@@ -9245,8 +9377,11 @@
         <f t="shared" si="11"/>
         <v>7.5947179152600075E-2</v>
       </c>
-    </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D741">
+        <v>6.2585238095238097E-2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <v>42430</v>
       </c>
@@ -9257,8 +9392,11 @@
         <f t="shared" si="11"/>
         <v>7.9690906289526575E-2</v>
       </c>
-    </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D742">
+        <v>6.4151E-2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>42461</v>
       </c>
@@ -9269,8 +9407,11 @@
         <f t="shared" si="11"/>
         <v>7.9261349533493064E-2</v>
       </c>
-    </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D743">
+        <v>6.6457142857142854E-2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <v>42491</v>
       </c>
@@ -9281,8 +9422,11 @@
         <f t="shared" si="11"/>
         <v>8.1952505900771966E-2</v>
       </c>
-    </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D744">
+        <v>7.1649500000000005E-2</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>42522</v>
       </c>
@@ -9293,8 +9437,11 @@
         <f t="shared" si="11"/>
         <v>8.6059818110984843E-2</v>
       </c>
-    </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D745">
+        <v>7.4389999999999998E-2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <v>42552</v>
       </c>
@@ -9305,8 +9452,11 @@
         <f t="shared" si="11"/>
         <v>8.9637018829386239E-2</v>
       </c>
-    </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D746">
+        <v>7.6189999999999994E-2</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>42583</v>
       </c>
@@ -9317,8 +9467,11 @@
         <f t="shared" si="11"/>
         <v>8.0961564857814805E-2</v>
       </c>
-    </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D747">
+        <v>7.8075454545454545E-2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <v>42614</v>
       </c>
@@ -9329,8 +9482,11 @@
         <f t="shared" si="11"/>
         <v>7.269766091678509E-2</v>
       </c>
-    </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D748">
+        <v>7.7508181818181809E-2</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>42644</v>
       </c>
@@ -9341,8 +9497,11 @@
         <f t="shared" si="11"/>
         <v>6.4813311799994944E-2</v>
       </c>
-    </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D749">
+        <v>7.7477000000000004E-2</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>42675</v>
       </c>
@@ -9353,8 +9512,11 @@
         <f t="shared" si="11"/>
         <v>5.9626845370750692E-2</v>
       </c>
-    </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D750">
+        <v>7.7370999999999995E-2</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>42705</v>
       </c>
@@ -9365,8 +9527,11 @@
         <f t="shared" si="11"/>
         <v>5.7520650090745251E-2</v>
       </c>
-    </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D751">
+        <v>7.6184500000000002E-2</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <v>42736</v>
       </c>
@@ -9377,8 +9542,11 @@
         <f t="shared" si="11"/>
         <v>5.4701708679702588E-2</v>
       </c>
-    </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D752">
+        <v>7.399571428571429E-2</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>42767</v>
       </c>
@@ -9389,8 +9557,11 @@
         <f t="shared" si="11"/>
         <v>5.1890003887606229E-2</v>
       </c>
-    </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D753">
+        <v>7.4383999999999992E-2</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <v>42795</v>
       </c>
@@ -9401,8 +9572,11 @@
         <f t="shared" si="11"/>
         <v>4.6992160596272869E-2</v>
       </c>
-    </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D754">
+        <v>7.0619545454545463E-2</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>42826</v>
       </c>
@@ -9413,8 +9587,11 @@
         <f t="shared" si="11"/>
         <v>4.6679625622960685E-2</v>
       </c>
-    </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D755">
+        <v>6.7951666666666674E-2</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>42856</v>
       </c>
@@ -9425,8 +9602,11 @@
         <f t="shared" si="11"/>
         <v>4.3763793415474428E-2</v>
       </c>
-    </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D756">
+        <v>6.2965238095238088E-2</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>42887</v>
       </c>
@@ -9437,8 +9617,11 @@
         <f t="shared" si="11"/>
         <v>3.9920316071090367E-2</v>
       </c>
-    </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D757">
+        <v>6.0464000000000004E-2</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>42917</v>
       </c>
@@ -9449,8 +9632,11 @@
         <f t="shared" si="11"/>
         <v>3.4023434055963753E-2</v>
       </c>
-    </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D758">
+        <v>5.5301052631578945E-2</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>42948</v>
       </c>
@@ -9461,8 +9647,11 @@
         <f t="shared" si="11"/>
         <v>3.8795211540572083E-2</v>
       </c>
-    </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D759">
+        <v>5.3307619047619041E-2</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>42979</v>
       </c>
@@ -9473,8 +9662,11 @@
         <f t="shared" si="11"/>
         <v>3.9730594922649409E-2</v>
       </c>
-    </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D760">
+        <v>5.2057619047619047E-2</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>43009</v>
       </c>
@@ -9485,8 +9677,11 @@
         <f t="shared" si="11"/>
         <v>4.0562878768895416E-2</v>
       </c>
-    </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D761">
+        <v>5.1895714285714281E-2</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>43040</v>
       </c>
@@ -9497,8 +9692,11 @@
         <f t="shared" si="11"/>
         <v>4.1290472431005032E-2</v>
       </c>
-    </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D762">
+        <v>4.8726000000000005E-2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>43070</v>
       </c>
@@ -9509,8 +9707,11 @@
         <f t="shared" si="11"/>
         <v>4.0875698293410645E-2</v>
       </c>
-    </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D763">
+        <v>4.7236111111111118E-2</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>43101</v>
       </c>
@@ -9521,8 +9722,11 @@
         <f t="shared" si="11"/>
         <v>3.6857271028171823E-2</v>
       </c>
-    </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D764">
+        <v>4.6452380952380953E-2</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>43132</v>
       </c>
@@ -9533,8 +9737,11 @@
         <f t="shared" si="11"/>
         <v>3.3777801853749123E-2</v>
       </c>
-    </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D765">
+        <v>4.4981999999999994E-2</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>43160</v>
       </c>
@@ -9545,8 +9752,11 @@
         <f t="shared" si="11"/>
         <v>3.1411235770078871E-2</v>
       </c>
-    </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D766">
+        <v>4.4464736842105265E-2</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>43191</v>
       </c>
@@ -9557,8 +9767,11 @@
         <f t="shared" si="11"/>
         <v>3.1308577142053373E-2</v>
       </c>
-    </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D767">
+        <v>4.3272380952380951E-2</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>43221</v>
       </c>
@@ -9569,8 +9782,11 @@
         <f t="shared" si="11"/>
         <v>3.1514365544156986E-2</v>
       </c>
-    </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D768">
+        <v>4.2439047619047619E-2</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>43252</v>
       </c>
@@ -9581,8 +9797,11 @@
         <f t="shared" si="11"/>
         <v>3.1926517922758135E-2</v>
       </c>
-    </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D769">
+        <v>4.2483684210526312E-2</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>43282</v>
       </c>
@@ -9593,8 +9812,11 @@
         <f t="shared" si="11"/>
         <v>3.1100563731324193E-2</v>
       </c>
-    </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D770">
+        <v>4.2512499999999995E-2</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>43313</v>
       </c>
@@ -9605,8 +9827,11 @@
         <f t="shared" si="11"/>
         <v>3.0894631923109372E-2</v>
       </c>
-    </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D771">
+        <v>4.2515238095238106E-2</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>43344</v>
       </c>
@@ -9617,8 +9842,11 @@
         <f t="shared" si="11"/>
         <v>3.2131210849846603E-2</v>
       </c>
-    </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D772">
+        <v>4.2504999999999994E-2</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>43374</v>
       </c>
@@ -9629,8 +9857,11 @@
         <f t="shared" si="11"/>
         <v>3.316313567573137E-2</v>
       </c>
-    </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D773">
+        <v>4.2505909090909094E-2</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>43405</v>
       </c>
@@ -9641,8 +9872,11 @@
         <f t="shared" si="11"/>
         <v>3.2544351605652277E-2</v>
       </c>
-    </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D774">
+        <v>4.2521500000000004E-2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>43435</v>
       </c>
@@ -9653,8 +9887,11 @@
         <f t="shared" si="11"/>
         <v>3.17214431763988E-2</v>
       </c>
-    </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D775">
+        <v>4.2494736842105273E-2</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>43466</v>
       </c>
@@ -9665,8 +9902,11 @@
         <f t="shared" si="11"/>
         <v>3.1413864489175269E-2</v>
       </c>
-    </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D776">
+        <v>4.2499047619047617E-2</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>43497</v>
       </c>
@@ -9677,8 +9917,11 @@
         <f t="shared" si="11"/>
         <v>2.998006505487405E-2</v>
       </c>
-    </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D777">
+        <v>4.2493499999999997E-2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>43525</v>
       </c>
@@ -9689,8 +9932,11 @@
         <f t="shared" si="11"/>
         <v>3.1932341714495216E-2</v>
       </c>
-    </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D778">
+        <v>4.2485000000000002E-2</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>43556</v>
       </c>
@@ -9701,8 +9947,11 @@
         <f t="shared" si="11"/>
         <v>3.2343224589953978E-2</v>
       </c>
-    </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D779">
+        <v>4.2495999999999999E-2</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>43586</v>
       </c>
@@ -9713,8 +9962,11 @@
         <f t="shared" si="11"/>
         <v>3.2961085871504148E-2</v>
       </c>
-    </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D780">
+        <v>4.2496363636363638E-2</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>43617</v>
       </c>
@@ -9725,8 +9977,11 @@
         <f t="shared" si="11"/>
         <v>3.4198782629413005E-2</v>
       </c>
-    </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D781">
+        <v>4.2481666666666668E-2</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>43647</v>
       </c>
@@ -9737,8 +9992,11 @@
         <f t="shared" si="11"/>
         <v>3.7823190098325465E-2</v>
       </c>
-    </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D782">
+        <v>4.2450454545454548E-2</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>43678</v>
       </c>
@@ -9749,8 +10007,11 @@
         <f t="shared" ref="C783:C801" si="12">B783/B771-1</f>
         <v>3.7512216309841806E-2</v>
       </c>
-    </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D783">
+        <v>4.2546999999999995E-2</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>43709</v>
       </c>
@@ -9761,8 +10022,11 @@
         <f t="shared" si="12"/>
         <v>3.8237314703828185E-2</v>
       </c>
-    </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D784">
+        <v>4.2555714285714287E-2</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <v>43739</v>
       </c>
@@ -9773,8 +10037,11 @@
         <f t="shared" si="12"/>
         <v>3.8652111873106687E-2</v>
       </c>
-    </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D785">
+        <v>4.2531363636363631E-2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <v>43770</v>
       </c>
@@ -9785,8 +10052,11 @@
         <f t="shared" si="12"/>
         <v>3.8444630428465576E-2</v>
       </c>
-    </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D786">
+        <v>4.2523684210526318E-2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <v>43800</v>
       </c>
@@ -9797,8 +10067,11 @@
         <f t="shared" si="12"/>
         <v>3.8030494982631557E-2</v>
       </c>
-    </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D787">
+        <v>4.2507500000000004E-2</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <v>43831</v>
       </c>
@@ -9809,8 +10082,11 @@
         <f t="shared" si="12"/>
         <v>3.6173183957811661E-2</v>
       </c>
-    </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D788">
+        <v>4.252809523809524E-2</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>43862</v>
       </c>
@@ -9821,8 +10097,11 @@
         <f t="shared" si="12"/>
         <v>3.7203484429082945E-2</v>
       </c>
-    </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D789">
+        <v>4.2522000000000004E-2</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <v>43891</v>
       </c>
@@ -9833,8 +10112,11 @@
         <f t="shared" si="12"/>
         <v>3.8649352076400412E-2</v>
       </c>
-    </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D790">
+        <v>4.136571428571429E-2</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <v>43922</v>
       </c>
@@ -9845,8 +10127,11 @@
         <f t="shared" si="12"/>
         <v>3.5135513472360769E-2</v>
       </c>
-    </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D791">
+        <v>3.3949E-2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <v>43952</v>
       </c>
@@ -9857,8 +10142,11 @@
         <f t="shared" si="12"/>
         <v>2.8634313457530869E-2</v>
       </c>
-    </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D792">
+        <v>2.967052631578947E-2</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <v>43983</v>
       </c>
@@ -9869,8 +10157,11 @@
         <f t="shared" si="12"/>
         <v>2.1966194341669798E-2</v>
       </c>
-    </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D793">
+        <v>2.568368421052631E-2</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>44013</v>
       </c>
@@ -9881,8 +10172,11 @@
         <f t="shared" si="12"/>
         <v>1.9722804172490394E-2</v>
       </c>
-    </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D794">
+        <v>2.342909090909091E-2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <v>44044</v>
       </c>
@@ -9893,8 +10187,11 @@
         <f t="shared" si="12"/>
         <v>1.8703998293609025E-2</v>
       </c>
-    </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D795">
+        <v>2.117157894736842E-2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <v>44075</v>
       </c>
@@ -9905,8 +10202,11 @@
         <f t="shared" si="12"/>
         <v>1.9618728013717224E-2</v>
       </c>
-    </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D796">
+        <v>1.9235909090909088E-2</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <v>44105</v>
       </c>
@@ -9917,8 +10217,11 @@
         <f t="shared" si="12"/>
         <v>1.7379150136690003E-2</v>
       </c>
-    </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D797">
+        <v>1.7491428571428571E-2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <v>44136</v>
       </c>
@@ -9929,8 +10232,11 @@
         <f t="shared" si="12"/>
         <v>1.4838243168316945E-2</v>
       </c>
-    </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D798">
+        <v>1.752894736842105E-2</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>44166</v>
       </c>
@@ -9941,8 +10247,11 @@
         <f t="shared" si="12"/>
         <v>1.6052890975819523E-2</v>
       </c>
-    </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D799">
+        <v>1.7519E-2</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <v>44197</v>
       </c>
@@ -9952,6 +10261,9 @@
       <c r="C800">
         <f t="shared" si="12"/>
         <v>1.5951710644115158E-2</v>
+      </c>
+      <c r="D800">
+        <v>1.7234736842105261E-2</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
